--- a/natmiOut/YoungD4/LR-pairs_lrc2p/F2-Itga2b.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/F2-Itga2b.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,12 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -89,12 +95,6 @@
   </si>
   <si>
     <t>Itga2b</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.853079630476172</v>
+        <v>0.9173669999999999</v>
       </c>
       <c r="H2">
-        <v>0.853079630476172</v>
+        <v>2.752101</v>
       </c>
       <c r="I2">
-        <v>0.4614814602172247</v>
+        <v>0.3945831400754584</v>
       </c>
       <c r="J2">
-        <v>0.4614814602172247</v>
+        <v>0.3945831400754584</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.4292967363318</v>
+        <v>1.540966666666667</v>
       </c>
       <c r="N2">
-        <v>1.4292967363318</v>
+        <v>4.6229</v>
       </c>
       <c r="O2">
-        <v>0.2772599276881574</v>
+        <v>0.2511536994468903</v>
       </c>
       <c r="P2">
-        <v>0.2772599276881574</v>
+        <v>0.2511536994468903</v>
       </c>
       <c r="Q2">
-        <v>1.219303931670731</v>
+        <v>1.4136319681</v>
       </c>
       <c r="R2">
-        <v>1.219303931670731</v>
+        <v>12.7226877129</v>
       </c>
       <c r="S2">
-        <v>0.127950316289253</v>
+        <v>0.09910101536932191</v>
       </c>
       <c r="T2">
-        <v>0.127950316289253</v>
+        <v>0.09910101536932189</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.853079630476172</v>
+        <v>0.9173669999999999</v>
       </c>
       <c r="H3">
-        <v>0.853079630476172</v>
+        <v>2.752101</v>
       </c>
       <c r="I3">
-        <v>0.4614814602172247</v>
+        <v>0.3945831400754584</v>
       </c>
       <c r="J3">
-        <v>0.4614814602172247</v>
+        <v>0.3945831400754584</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.54300855879473</v>
+        <v>3.189648</v>
       </c>
       <c r="N3">
-        <v>2.54300855879473</v>
+        <v>9.568944</v>
       </c>
       <c r="O3">
-        <v>0.4933016015493892</v>
+        <v>0.5198632212247992</v>
       </c>
       <c r="P3">
-        <v>0.4933016015493892</v>
+        <v>0.5198632212247993</v>
       </c>
       <c r="Q3">
-        <v>2.169388801634351</v>
+        <v>2.926077816816</v>
       </c>
       <c r="R3">
-        <v>2.169388801634351</v>
+        <v>26.334700351344</v>
       </c>
       <c r="S3">
-        <v>0.2276495434105077</v>
+        <v>0.205129262240624</v>
       </c>
       <c r="T3">
-        <v>0.2276495434105077</v>
+        <v>0.205129262240624</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.853079630476172</v>
+        <v>0.9173669999999999</v>
       </c>
       <c r="H4">
-        <v>0.853079630476172</v>
+        <v>2.752101</v>
       </c>
       <c r="I4">
-        <v>0.4614814602172247</v>
+        <v>0.3945831400754584</v>
       </c>
       <c r="J4">
-        <v>0.4614814602172247</v>
+        <v>0.3945831400754584</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.248466877434045</v>
+        <v>0.300239</v>
       </c>
       <c r="N4">
-        <v>0.248466877434045</v>
+        <v>0.900717</v>
       </c>
       <c r="O4">
-        <v>0.04819846482478311</v>
+        <v>0.04893430675651748</v>
       </c>
       <c r="P4">
-        <v>0.04819846482478311</v>
+        <v>0.04893430675651749</v>
       </c>
       <c r="Q4">
-        <v>0.2119620319870034</v>
+        <v>0.275429350713</v>
       </c>
       <c r="R4">
-        <v>0.2119620319870034</v>
+        <v>2.478864156417</v>
       </c>
       <c r="S4">
-        <v>0.02224269792756945</v>
+        <v>0.01930865241740239</v>
       </c>
       <c r="T4">
-        <v>0.02224269792756945</v>
+        <v>0.01930865241740239</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.853079630476172</v>
+        <v>0.9173669999999999</v>
       </c>
       <c r="H5">
-        <v>0.853079630476172</v>
+        <v>2.752101</v>
       </c>
       <c r="I5">
-        <v>0.4614814602172247</v>
+        <v>0.3945831400754584</v>
       </c>
       <c r="J5">
-        <v>0.4614814602172247</v>
+        <v>0.3945831400754584</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.398272235960241</v>
+        <v>0.4204656666666667</v>
       </c>
       <c r="N5">
-        <v>0.398272235960241</v>
+        <v>1.261397</v>
       </c>
       <c r="O5">
-        <v>0.07725822674578812</v>
+        <v>0.0685293912957687</v>
       </c>
       <c r="P5">
-        <v>0.07725822674578812</v>
+        <v>0.06852939129576871</v>
       </c>
       <c r="Q5">
-        <v>0.3397579318818811</v>
+        <v>0.385721327233</v>
       </c>
       <c r="R5">
-        <v>0.3397579318818811</v>
+        <v>3.471491945097</v>
       </c>
       <c r="S5">
-        <v>0.03565323929243975</v>
+        <v>0.0270405424049442</v>
       </c>
       <c r="T5">
-        <v>0.03565323929243975</v>
+        <v>0.0270405424049442</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.853079630476172</v>
+        <v>0.9173669999999999</v>
       </c>
       <c r="H6">
-        <v>0.853079630476172</v>
+        <v>2.752101</v>
       </c>
       <c r="I6">
-        <v>0.4614814602172247</v>
+        <v>0.3945831400754584</v>
       </c>
       <c r="J6">
-        <v>0.4614814602172247</v>
+        <v>0.3945831400754584</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.536034250878437</v>
+        <v>0.684233</v>
       </c>
       <c r="N6">
-        <v>0.536034250878437</v>
+        <v>2.052699</v>
       </c>
       <c r="O6">
-        <v>0.1039817791918822</v>
+        <v>0.1115193812760242</v>
       </c>
       <c r="P6">
-        <v>0.1039817791918822</v>
+        <v>0.1115193812760242</v>
       </c>
       <c r="Q6">
-        <v>0.4572799006619487</v>
+        <v>0.6276927745109999</v>
       </c>
       <c r="R6">
-        <v>0.4572799006619487</v>
+        <v>5.649234970598999</v>
       </c>
       <c r="S6">
-        <v>0.04798566329745481</v>
+        <v>0.04400366764316591</v>
       </c>
       <c r="T6">
-        <v>0.04798566329745481</v>
+        <v>0.04400366764316591</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.729449170168489</v>
+        <v>0.824043</v>
       </c>
       <c r="H7">
-        <v>0.729449170168489</v>
+        <v>2.472129</v>
       </c>
       <c r="I7">
-        <v>0.3946023983900525</v>
+        <v>0.3544420875148125</v>
       </c>
       <c r="J7">
-        <v>0.3946023983900525</v>
+        <v>0.3544420875148125</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.4292967363318</v>
+        <v>1.540966666666667</v>
       </c>
       <c r="N7">
-        <v>1.4292967363318</v>
+        <v>4.6229</v>
       </c>
       <c r="O7">
-        <v>0.2772599276881574</v>
+        <v>0.2511536994468903</v>
       </c>
       <c r="P7">
-        <v>0.2772599276881574</v>
+        <v>0.2511536994468903</v>
       </c>
       <c r="Q7">
-        <v>1.042599318241761</v>
+        <v>1.2698227949</v>
       </c>
       <c r="R7">
-        <v>1.042599318241761</v>
+        <v>11.4284051541</v>
       </c>
       <c r="S7">
-        <v>0.1094074324431994</v>
+        <v>0.08901944151902361</v>
       </c>
       <c r="T7">
-        <v>0.1094074324431994</v>
+        <v>0.08901944151902361</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.729449170168489</v>
+        <v>0.824043</v>
       </c>
       <c r="H8">
-        <v>0.729449170168489</v>
+        <v>2.472129</v>
       </c>
       <c r="I8">
-        <v>0.3946023983900525</v>
+        <v>0.3544420875148125</v>
       </c>
       <c r="J8">
-        <v>0.3946023983900525</v>
+        <v>0.3544420875148125</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.54300855879473</v>
+        <v>3.189648</v>
       </c>
       <c r="N8">
-        <v>2.54300855879473</v>
+        <v>9.568944</v>
       </c>
       <c r="O8">
-        <v>0.4933016015493892</v>
+        <v>0.5198632212247992</v>
       </c>
       <c r="P8">
-        <v>0.4933016015493892</v>
+        <v>0.5198632212247993</v>
       </c>
       <c r="Q8">
-        <v>1.854995482944181</v>
+        <v>2.628407106864</v>
       </c>
       <c r="R8">
-        <v>1.854995482944181</v>
+        <v>23.655663961776</v>
       </c>
       <c r="S8">
-        <v>0.194657995101043</v>
+        <v>0.1842614053530926</v>
       </c>
       <c r="T8">
-        <v>0.194657995101043</v>
+        <v>0.1842614053530927</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.729449170168489</v>
+        <v>0.824043</v>
       </c>
       <c r="H9">
-        <v>0.729449170168489</v>
+        <v>2.472129</v>
       </c>
       <c r="I9">
-        <v>0.3946023983900525</v>
+        <v>0.3544420875148125</v>
       </c>
       <c r="J9">
-        <v>0.3946023983900525</v>
+        <v>0.3544420875148125</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.248466877434045</v>
+        <v>0.300239</v>
       </c>
       <c r="N9">
-        <v>0.248466877434045</v>
+        <v>0.900717</v>
       </c>
       <c r="O9">
-        <v>0.04819846482478311</v>
+        <v>0.04893430675651748</v>
       </c>
       <c r="P9">
-        <v>0.04819846482478311</v>
+        <v>0.04893430675651749</v>
       </c>
       <c r="Q9">
-        <v>0.1812439575586198</v>
+        <v>0.247409846277</v>
       </c>
       <c r="R9">
-        <v>0.1812439575586198</v>
+        <v>2.226688616493</v>
       </c>
       <c r="S9">
-        <v>0.019019229818578</v>
+        <v>0.01734437783787025</v>
       </c>
       <c r="T9">
-        <v>0.019019229818578</v>
+        <v>0.01734437783787025</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>26</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.729449170168489</v>
+        <v>0.824043</v>
       </c>
       <c r="H10">
-        <v>0.729449170168489</v>
+        <v>2.472129</v>
       </c>
       <c r="I10">
-        <v>0.3946023983900525</v>
+        <v>0.3544420875148125</v>
       </c>
       <c r="J10">
-        <v>0.3946023983900525</v>
+        <v>0.3544420875148125</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.398272235960241</v>
+        <v>0.4204656666666667</v>
       </c>
       <c r="N10">
-        <v>0.398272235960241</v>
+        <v>1.261397</v>
       </c>
       <c r="O10">
-        <v>0.07725822674578812</v>
+        <v>0.0685293912957687</v>
       </c>
       <c r="P10">
-        <v>0.07725822674578812</v>
+        <v>0.06852939129576871</v>
       </c>
       <c r="Q10">
-        <v>0.2905193520223464</v>
+        <v>0.346481789357</v>
       </c>
       <c r="R10">
-        <v>0.2905193520223464</v>
+        <v>3.118336104213</v>
       </c>
       <c r="S10">
-        <v>0.03048628156925049</v>
+        <v>0.02428970050699168</v>
       </c>
       <c r="T10">
-        <v>0.03048628156925049</v>
+        <v>0.02428970050699168</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="D11" t="s">
-        <v>22</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.729449170168489</v>
+        <v>0.824043</v>
       </c>
       <c r="H11">
-        <v>0.729449170168489</v>
+        <v>2.472129</v>
       </c>
       <c r="I11">
-        <v>0.3946023983900525</v>
+        <v>0.3544420875148125</v>
       </c>
       <c r="J11">
-        <v>0.3946023983900525</v>
+        <v>0.3544420875148125</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.536034250878437</v>
+        <v>0.684233</v>
       </c>
       <c r="N11">
-        <v>0.536034250878437</v>
+        <v>2.052699</v>
       </c>
       <c r="O11">
-        <v>0.1039817791918822</v>
+        <v>0.1115193812760242</v>
       </c>
       <c r="P11">
-        <v>0.1039817791918822</v>
+        <v>0.1115193812760242</v>
       </c>
       <c r="Q11">
-        <v>0.3910097394851635</v>
+        <v>0.563837414019</v>
       </c>
       <c r="R11">
-        <v>0.3910097394851635</v>
+        <v>5.074536726171</v>
       </c>
       <c r="S11">
-        <v>0.04103145945798155</v>
+        <v>0.03952716229783431</v>
       </c>
       <c r="T11">
-        <v>0.04103145945798155</v>
+        <v>0.03952716229783432</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,61 +1145,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.266038702098824</v>
+        <v>0.172111</v>
       </c>
       <c r="H12">
-        <v>0.266038702098824</v>
+        <v>0.5163329999999999</v>
       </c>
       <c r="I12">
-        <v>0.1439161413927229</v>
+        <v>0.07402936755031217</v>
       </c>
       <c r="J12">
-        <v>0.1439161413927229</v>
+        <v>0.07402936755031216</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.4292967363318</v>
+        <v>1.540966666666667</v>
       </c>
       <c r="N12">
-        <v>1.4292967363318</v>
+        <v>4.6229</v>
       </c>
       <c r="O12">
-        <v>0.2772599276881574</v>
+        <v>0.2511536994468903</v>
       </c>
       <c r="P12">
-        <v>0.2772599276881574</v>
+        <v>0.2511536994468903</v>
       </c>
       <c r="Q12">
-        <v>0.3802482486477972</v>
+        <v>0.2652173139666666</v>
       </c>
       <c r="R12">
-        <v>0.3802482486477972</v>
+        <v>2.386955825699999</v>
       </c>
       <c r="S12">
-        <v>0.03990217895570498</v>
+        <v>0.01859274952797448</v>
       </c>
       <c r="T12">
-        <v>0.03990217895570498</v>
+        <v>0.01859274952797447</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,61 +1207,61 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.266038702098824</v>
+        <v>0.172111</v>
       </c>
       <c r="H13">
-        <v>0.266038702098824</v>
+        <v>0.5163329999999999</v>
       </c>
       <c r="I13">
-        <v>0.1439161413927229</v>
+        <v>0.07402936755031217</v>
       </c>
       <c r="J13">
-        <v>0.1439161413927229</v>
+        <v>0.07402936755031216</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>2.54300855879473</v>
+        <v>3.189648</v>
       </c>
       <c r="N13">
-        <v>2.54300855879473</v>
+        <v>9.568944</v>
       </c>
       <c r="O13">
-        <v>0.4933016015493892</v>
+        <v>0.5198632212247992</v>
       </c>
       <c r="P13">
-        <v>0.4933016015493892</v>
+        <v>0.5198632212247993</v>
       </c>
       <c r="Q13">
-        <v>0.6765386964079509</v>
+        <v>0.548973506928</v>
       </c>
       <c r="R13">
-        <v>0.6765386964079509</v>
+        <v>4.940761562352</v>
       </c>
       <c r="S13">
-        <v>0.07099406303783855</v>
+        <v>0.03848514547993991</v>
       </c>
       <c r="T13">
-        <v>0.07099406303783855</v>
+        <v>0.03848514547993991</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,61 +1269,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.266038702098824</v>
+        <v>0.172111</v>
       </c>
       <c r="H14">
-        <v>0.266038702098824</v>
+        <v>0.5163329999999999</v>
       </c>
       <c r="I14">
-        <v>0.1439161413927229</v>
+        <v>0.07402936755031217</v>
       </c>
       <c r="J14">
-        <v>0.1439161413927229</v>
+        <v>0.07402936755031216</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.248466877434045</v>
+        <v>0.300239</v>
       </c>
       <c r="N14">
-        <v>0.248466877434045</v>
+        <v>0.900717</v>
       </c>
       <c r="O14">
-        <v>0.04819846482478311</v>
+        <v>0.04893430675651748</v>
       </c>
       <c r="P14">
-        <v>0.04819846482478311</v>
+        <v>0.04893430675651749</v>
       </c>
       <c r="Q14">
-        <v>0.06610180558710092</v>
+        <v>0.05167443452899999</v>
       </c>
       <c r="R14">
-        <v>0.06610180558710092</v>
+        <v>0.4650699107609999</v>
       </c>
       <c r="S14">
-        <v>0.006936537078635667</v>
+        <v>0.003622575780697957</v>
       </c>
       <c r="T14">
-        <v>0.006936537078635667</v>
+        <v>0.003622575780697957</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,61 +1331,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="C15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" t="s">
-        <v>26</v>
-      </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.266038702098824</v>
+        <v>0.172111</v>
       </c>
       <c r="H15">
-        <v>0.266038702098824</v>
+        <v>0.5163329999999999</v>
       </c>
       <c r="I15">
-        <v>0.1439161413927229</v>
+        <v>0.07402936755031217</v>
       </c>
       <c r="J15">
-        <v>0.1439161413927229</v>
+        <v>0.07402936755031216</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.398272235960241</v>
+        <v>0.4204656666666667</v>
       </c>
       <c r="N15">
-        <v>0.398272235960241</v>
+        <v>1.261397</v>
       </c>
       <c r="O15">
-        <v>0.07725822674578812</v>
+        <v>0.0685293912957687</v>
       </c>
       <c r="P15">
-        <v>0.07725822674578812</v>
+        <v>0.06852939129576871</v>
       </c>
       <c r="Q15">
-        <v>0.1059558287368591</v>
+        <v>0.07236676635566666</v>
       </c>
       <c r="R15">
-        <v>0.1059558287368591</v>
+        <v>0.6513008972009999</v>
       </c>
       <c r="S15">
-        <v>0.01111870588409789</v>
+        <v>0.005073187496233624</v>
       </c>
       <c r="T15">
-        <v>0.01111870588409789</v>
+        <v>0.005073187496233624</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1393,681 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>0.172111</v>
+      </c>
+      <c r="H16">
+        <v>0.5163329999999999</v>
+      </c>
+      <c r="I16">
+        <v>0.07402936755031217</v>
+      </c>
+      <c r="J16">
+        <v>0.07402936755031216</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.684233</v>
+      </c>
+      <c r="N16">
+        <v>2.052699</v>
+      </c>
+      <c r="O16">
+        <v>0.1115193812760242</v>
+      </c>
+      <c r="P16">
+        <v>0.1115193812760242</v>
+      </c>
+      <c r="Q16">
+        <v>0.117764025863</v>
+      </c>
+      <c r="R16">
+        <v>1.059876232767</v>
+      </c>
+      <c r="S16">
+        <v>0.008255709265466198</v>
+      </c>
+      <c r="T16">
+        <v>0.008255709265466196</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
         <v>23</v>
       </c>
-      <c r="C16" t="s">
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.076847</v>
+      </c>
+      <c r="H17">
+        <v>0.230541</v>
+      </c>
+      <c r="I17">
+        <v>0.0330538710956234</v>
+      </c>
+      <c r="J17">
+        <v>0.0330538710956234</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>1.540966666666667</v>
+      </c>
+      <c r="N17">
+        <v>4.6229</v>
+      </c>
+      <c r="O17">
+        <v>0.2511536994468903</v>
+      </c>
+      <c r="P17">
+        <v>0.2511536994468903</v>
+      </c>
+      <c r="Q17">
+        <v>0.1184186654333333</v>
+      </c>
+      <c r="R17">
+        <v>1.0657679889</v>
+      </c>
+      <c r="S17">
+        <v>0.008301602006706455</v>
+      </c>
+      <c r="T17">
+        <v>0.008301602006706455</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G18">
+        <v>0.076847</v>
+      </c>
+      <c r="H18">
+        <v>0.230541</v>
+      </c>
+      <c r="I18">
+        <v>0.0330538710956234</v>
+      </c>
+      <c r="J18">
+        <v>0.0330538710956234</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>3.189648</v>
+      </c>
+      <c r="N18">
+        <v>9.568944</v>
+      </c>
+      <c r="O18">
+        <v>0.5198632212247992</v>
+      </c>
+      <c r="P18">
+        <v>0.5198632212247993</v>
+      </c>
+      <c r="Q18">
+        <v>0.245114879856</v>
+      </c>
+      <c r="R18">
+        <v>2.206033918704</v>
+      </c>
+      <c r="S18">
+        <v>0.01718349190172007</v>
+      </c>
+      <c r="T18">
+        <v>0.01718349190172007</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.076847</v>
+      </c>
+      <c r="H19">
+        <v>0.230541</v>
+      </c>
+      <c r="I19">
+        <v>0.0330538710956234</v>
+      </c>
+      <c r="J19">
+        <v>0.0330538710956234</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>0.300239</v>
+      </c>
+      <c r="N19">
+        <v>0.900717</v>
+      </c>
+      <c r="O19">
+        <v>0.04893430675651748</v>
+      </c>
+      <c r="P19">
+        <v>0.04893430675651749</v>
+      </c>
+      <c r="Q19">
+        <v>0.023072466433</v>
+      </c>
+      <c r="R19">
+        <v>0.207652197897</v>
+      </c>
+      <c r="S19">
+        <v>0.001617468267683622</v>
+      </c>
+      <c r="T19">
+        <v>0.001617468267683623</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G20">
+        <v>0.076847</v>
+      </c>
+      <c r="H20">
+        <v>0.230541</v>
+      </c>
+      <c r="I20">
+        <v>0.0330538710956234</v>
+      </c>
+      <c r="J20">
+        <v>0.0330538710956234</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>0.4204656666666667</v>
+      </c>
+      <c r="N20">
+        <v>1.261397</v>
+      </c>
+      <c r="O20">
+        <v>0.0685293912957687</v>
+      </c>
+      <c r="P20">
+        <v>0.06852939129576871</v>
+      </c>
+      <c r="Q20">
+        <v>0.03231152508633334</v>
+      </c>
+      <c r="R20">
+        <v>0.290803725777</v>
+      </c>
+      <c r="S20">
+        <v>0.002265161666151875</v>
+      </c>
+      <c r="T20">
+        <v>0.002265161666151875</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G21">
+        <v>0.076847</v>
+      </c>
+      <c r="H21">
+        <v>0.230541</v>
+      </c>
+      <c r="I21">
+        <v>0.0330538710956234</v>
+      </c>
+      <c r="J21">
+        <v>0.0330538710956234</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>0.684233</v>
+      </c>
+      <c r="N21">
+        <v>2.052699</v>
+      </c>
+      <c r="O21">
+        <v>0.1115193812760242</v>
+      </c>
+      <c r="P21">
+        <v>0.1115193812760242</v>
+      </c>
+      <c r="Q21">
+        <v>0.05258125335099999</v>
+      </c>
+      <c r="R21">
+        <v>0.473231280159</v>
+      </c>
+      <c r="S21">
+        <v>0.003686147253361382</v>
+      </c>
+      <c r="T21">
+        <v>0.003686147253361383</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>0.3345336666666667</v>
+      </c>
+      <c r="H22">
+        <v>1.003601</v>
+      </c>
+      <c r="I22">
+        <v>0.1438915337637936</v>
+      </c>
+      <c r="J22">
+        <v>0.1438915337637936</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>1.540966666666667</v>
+      </c>
+      <c r="N22">
+        <v>4.6229</v>
+      </c>
+      <c r="O22">
+        <v>0.2511536994468903</v>
+      </c>
+      <c r="P22">
+        <v>0.2511536994468903</v>
+      </c>
+      <c r="Q22">
+        <v>0.5155052292111111</v>
+      </c>
+      <c r="R22">
+        <v>4.639547062899999</v>
+      </c>
+      <c r="S22">
+        <v>0.03613889102386389</v>
+      </c>
+      <c r="T22">
+        <v>0.03613889102386389</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>0.3345336666666667</v>
+      </c>
+      <c r="H23">
+        <v>1.003601</v>
+      </c>
+      <c r="I23">
+        <v>0.1438915337637936</v>
+      </c>
+      <c r="J23">
+        <v>0.1438915337637936</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>3.189648</v>
+      </c>
+      <c r="N23">
+        <v>9.568944</v>
+      </c>
+      <c r="O23">
+        <v>0.5198632212247992</v>
+      </c>
+      <c r="P23">
+        <v>0.5198632212247993</v>
+      </c>
+      <c r="Q23">
+        <v>1.067044640816</v>
+      </c>
+      <c r="R23">
+        <v>9.603401767344</v>
+      </c>
+      <c r="S23">
+        <v>0.0748039162494227</v>
+      </c>
+      <c r="T23">
+        <v>0.07480391624942272</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
         <v>22</v>
       </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>0.266038702098824</v>
-      </c>
-      <c r="H16">
-        <v>0.266038702098824</v>
-      </c>
-      <c r="I16">
-        <v>0.1439161413927229</v>
-      </c>
-      <c r="J16">
-        <v>0.1439161413927229</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>0.536034250878437</v>
-      </c>
-      <c r="N16">
-        <v>0.536034250878437</v>
-      </c>
-      <c r="O16">
-        <v>0.1039817791918822</v>
-      </c>
-      <c r="P16">
-        <v>0.1039817791918822</v>
-      </c>
-      <c r="Q16">
-        <v>0.1426058563842148</v>
-      </c>
-      <c r="R16">
-        <v>0.1426058563842148</v>
-      </c>
-      <c r="S16">
-        <v>0.0149646564364458</v>
-      </c>
-      <c r="T16">
-        <v>0.0149646564364458</v>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>0.3345336666666667</v>
+      </c>
+      <c r="H24">
+        <v>1.003601</v>
+      </c>
+      <c r="I24">
+        <v>0.1438915337637936</v>
+      </c>
+      <c r="J24">
+        <v>0.1438915337637936</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>0.300239</v>
+      </c>
+      <c r="N24">
+        <v>0.900717</v>
+      </c>
+      <c r="O24">
+        <v>0.04893430675651748</v>
+      </c>
+      <c r="P24">
+        <v>0.04893430675651749</v>
+      </c>
+      <c r="Q24">
+        <v>0.1004400535463333</v>
+      </c>
+      <c r="R24">
+        <v>0.903960481917</v>
+      </c>
+      <c r="S24">
+        <v>0.007041232452863269</v>
+      </c>
+      <c r="T24">
+        <v>0.00704123245286327</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0.3345336666666667</v>
+      </c>
+      <c r="H25">
+        <v>1.003601</v>
+      </c>
+      <c r="I25">
+        <v>0.1438915337637936</v>
+      </c>
+      <c r="J25">
+        <v>0.1438915337637936</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>0.4204656666666667</v>
+      </c>
+      <c r="N25">
+        <v>1.261397</v>
+      </c>
+      <c r="O25">
+        <v>0.0685293912957687</v>
+      </c>
+      <c r="P25">
+        <v>0.06852939129576871</v>
+      </c>
+      <c r="Q25">
+        <v>0.1406599211774444</v>
+      </c>
+      <c r="R25">
+        <v>1.265939290597</v>
+      </c>
+      <c r="S25">
+        <v>0.009860799221447324</v>
+      </c>
+      <c r="T25">
+        <v>0.009860799221447327</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>0.3345336666666667</v>
+      </c>
+      <c r="H26">
+        <v>1.003601</v>
+      </c>
+      <c r="I26">
+        <v>0.1438915337637936</v>
+      </c>
+      <c r="J26">
+        <v>0.1438915337637936</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>0.684233</v>
+      </c>
+      <c r="N26">
+        <v>2.052699</v>
+      </c>
+      <c r="O26">
+        <v>0.1115193812760242</v>
+      </c>
+      <c r="P26">
+        <v>0.1115193812760242</v>
+      </c>
+      <c r="Q26">
+        <v>0.2288989743443333</v>
+      </c>
+      <c r="R26">
+        <v>2.060090769099</v>
+      </c>
+      <c r="S26">
+        <v>0.01604669481619641</v>
+      </c>
+      <c r="T26">
+        <v>0.01604669481619641</v>
       </c>
     </row>
   </sheetData>
